--- a/study.xlsx
+++ b/study.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>日期</t>
   </si>
@@ -36,6 +36,12 @@
   <si>
     <t>指针，结构体</t>
   </si>
+  <si>
+    <t>下午2：30-5，晚自习部分时间（今天晚自习反诈电影，孤注一掷）</t>
+  </si>
+  <si>
+    <t>高数第一章复习做题，C语言学习，英语</t>
+  </si>
 </sst>
 </file>
 
@@ -47,14 +53,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,148 +509,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -983,7 +982,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:N3"/>
+      <selection activeCell="G4" sqref="G4:N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1057,13 +1056,20 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
     </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="2"/>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>7</v>
+      </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>

--- a/study.xlsx
+++ b/study.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11480"/>
+    <workbookView windowWidth="12800" windowHeight="11630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>日期</t>
   </si>
@@ -41,6 +41,33 @@
   </si>
   <si>
     <t>高数第一章复习做题，C语言学习，英语</t>
+  </si>
+  <si>
+    <t>正常晚自习时间，回来后也学了一会儿</t>
+  </si>
+  <si>
+    <t>高数，c语言</t>
+  </si>
+  <si>
+    <t>同上</t>
+  </si>
+  <si>
+    <t>正常晚自习时间</t>
+  </si>
+  <si>
+    <t>（下周月考，这几天事情也有些多，忘了传，不过进度没落下）</t>
+  </si>
+  <si>
+    <t>4-5：30，正常晚自习</t>
+  </si>
+  <si>
+    <t>线代，高数，C语言</t>
+  </si>
+  <si>
+    <t>4-5：30，6：30-9</t>
+  </si>
+  <si>
+    <t>高数，C语言</t>
   </si>
 </sst>
 </file>
@@ -982,7 +1009,7 @@
   <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:N4"/>
+      <selection activeCell="B14" sqref="B14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1078,13 +1105,20 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="2"/>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1093,8 +1127,13 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="2"/>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1108,13 +1147,20 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
     </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="2"/>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1123,13 +1169,20 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="2"/>
+    <row r="8" spans="1:14">
+      <c r="A8">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1138,13 +1191,20 @@
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="2"/>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>17</v>
+      </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
